--- a/output/ex2_Solved.xlsx
+++ b/output/ex2_Solved.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-4.903</v>
+        <v>-1.305</v>
       </c>
       <c r="C2">
-        <v>-4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -418,10 +418,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>-5.097</v>
+        <v>-28.695</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -461,10 +461,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.903E-05</v>
+        <v>2.653E-05</v>
       </c>
       <c r="C3">
-        <v>-2.896E-05</v>
+        <v>-0.00034323</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -472,10 +472,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.918E-05</v>
+        <v>3.729E-05</v>
       </c>
       <c r="C4">
-        <v>-4.129E-05</v>
+        <v>-0.00049291</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -483,10 +483,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.916E-05</v>
+        <v>4.021E-05</v>
       </c>
       <c r="C5">
-        <v>-3.365E-05</v>
+        <v>-0.00061843</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -494,10 +494,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.891E-05</v>
+        <v>3.174E-05</v>
       </c>
       <c r="C6">
-        <v>-2.18E-05</v>
+        <v>-0.00046467</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -516,10 +516,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.00016354</v>
+        <v>0.0005528600000000001</v>
       </c>
       <c r="C8">
-        <v>1.806E-05</v>
+        <v>-3.333E-05</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -527,10 +527,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.00011806</v>
+        <v>0.0005028599999999999</v>
       </c>
       <c r="C9">
-        <v>-2.836E-05</v>
+        <v>-0.00036323</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -538,10 +538,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8.369000000000001E-05</v>
+        <v>0.00043286</v>
       </c>
       <c r="C10">
-        <v>-3.69E-05</v>
+        <v>-0.0005184499999999999</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -549,10 +549,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5.915E-05</v>
+        <v>0.00038509</v>
       </c>
       <c r="C11">
-        <v>-3.09E-05</v>
+        <v>-0.0005954500000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -560,10 +560,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4.438000000000001E-05</v>
+        <v>0.00040509</v>
       </c>
       <c r="C12">
-        <v>-1.458E-05</v>
+        <v>-0.00024467</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -571,10 +571,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4.096E-05</v>
+        <v>0.00050509</v>
       </c>
       <c r="C13">
-        <v>-1.369E-05</v>
+        <v>-0.0001</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.806</v>
+        <v>5.306</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.03</v>
+        <v>4.304</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -616,7 +616,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.004</v>
+        <v>1.752</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-2.05</v>
+        <v>-1.694</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -632,7 +632,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-3.782</v>
+        <v>-12.696</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.806</v>
+        <v>-9.999000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.06</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -656,7 +656,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.439</v>
+        <v>-5.108</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -664,7 +664,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.275</v>
+        <v>6.894</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -672,7 +672,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.722</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -680,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-1.369</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -688,7 +688,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-9.096</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -696,7 +696,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-6.874</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-4.908</v>
+        <v>-9.554</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-2.954</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -720,7 +720,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-0.6840000000000001</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -728,7 +728,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-2.0188</v>
+        <v>-8.944000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -736,7 +736,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2.4536</v>
+        <v>2.2356</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -744,7 +744,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.9512</v>
+        <v>5.7088</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -752,7 +752,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-2.5208</v>
+        <v>-7.7076</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -760,7 +760,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.03</v>
+        <v>-24.5964</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -768,39 +768,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-2.4412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>2.1344</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>-2.3376</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>1.5308</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>-2.9416</v>
+        <v>-35.7772</v>
       </c>
     </row>
   </sheetData>
